--- a/training_data/data_set5/RandomRequestNumberclientv6#loops1#requests_batch50#Tue-Aug--6-18-39-40-2024.xlsx
+++ b/training_data/data_set5/RandomRequestNumberclientv6#loops1#requests_batch50#Tue-Aug--6-18-39-40-2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Routing-Monitor-Docker-Request-\demo_utils\client\excel8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\training\training_data\data_set5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E68DA92-CF4A-42E3-AB74-8AFF6BAE80BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447A5C8-8A56-4247-9E1B-03A0BE9FA8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2556" yWindow="1788" windowWidth="37296" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -98,11 +98,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -110,12 +110,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -449,34 +450,34 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="136" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="40.69921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="54" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="54" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>472849</v>
       </c>
@@ -591,7 +592,7 @@
         <v>7.5949685573577881</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>341526</v>
       </c>
@@ -647,7 +648,7 @@
         <v>12.12054395675659</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>265475</v>
       </c>
@@ -706,7 +707,7 @@
         <v>3.356796503067017</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>462890</v>
       </c>
@@ -768,7 +769,7 @@
         <v>7.4417791366577148</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>409229</v>
       </c>
@@ -830,7 +831,7 @@
         <v>13.42105507850647</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>220055</v>
       </c>
@@ -892,7 +893,7 @@
         <v>13.79799222946167</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>207655</v>
       </c>
@@ -954,7 +955,7 @@
         <v>4.8361060619354248</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>104675</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>5.528113842010498</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>438323</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>19.405940771102909</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>216588</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>15.424860715866091</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>328938</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>19.67664551734924</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>186626</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>6.6805489063262939</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>70763</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>19.08690524101257</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>193937</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>20.987445116043091</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>332965</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>23.413105010986332</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>174022</v>
       </c>
@@ -1512,7 +1513,7 @@
         <v>7.644627571105957</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>183501</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>9.3978078365325928</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5969</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>20.16135835647583</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>316912</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>26.820819139480591</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>264242</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>29.887819290161129</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>458444</v>
       </c>
@@ -1822,7 +1823,7 @@
         <v>15.8285813331604</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>140263</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>20.68433499336243</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>260914</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>23.68683648109436</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>82569</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>30.325124740600589</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>259769</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>33.334300994873047</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>131443</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>34.369774103164673</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>327327</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>32.869179010391242</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>118231</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>33.7266526222229</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>191717</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>35.575006008148193</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>267194</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>25.53160190582275</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>34077</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>13.949438333511351</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>90763</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>25.864521265029911</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>321255</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>37.213752031326287</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>247951</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>28.437191963195801</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>417707</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>19.42390513420105</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>203617</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>36.359148502349854</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>214273</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>38.618456840515137</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>339124</v>
       </c>
@@ -2854,9 +2855,6 @@
       <c r="M39">
         <v>34</v>
       </c>
-      <c r="N39">
-        <v>1722937188.6340239</v>
-      </c>
       <c r="O39">
         <v>87</v>
       </c>
@@ -2876,7 +2874,7 @@
         <v>40.857276916503913</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>252781</v>
       </c>
@@ -2938,7 +2936,7 @@
         <v>30.47687125205994</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>48814</v>
       </c>
@@ -3000,7 +2998,7 @@
         <v>30.600690841674801</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>58802</v>
       </c>
@@ -3062,7 +3060,7 @@
         <v>38.194443941116333</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>333480</v>
       </c>
@@ -3124,7 +3122,7 @@
         <v>44.597198009490967</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>466797</v>
       </c>
@@ -3186,7 +3184,7 @@
         <v>51.844844102859497</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>160128</v>
       </c>
@@ -3248,7 +3246,7 @@
         <v>31.366646528244019</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>486279</v>
       </c>
@@ -3310,7 +3308,7 @@
         <v>25.217353820800781</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>39006</v>
       </c>
@@ -3372,7 +3370,7 @@
         <v>37.416118860244751</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>21998</v>
       </c>
@@ -3434,7 +3432,7 @@
         <v>51.161286354064941</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>475312</v>
       </c>
@@ -3496,7 +3494,7 @@
         <v>44.59522557258606</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>343368</v>
       </c>
@@ -3558,7 +3556,7 @@
         <v>35.115863800048828</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>425571</v>
       </c>
